--- a/춘천시20251031미이체분불일치원인분석20251125.xlsx
+++ b/춘천시20251031미이체분불일치원인분석20251125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\sidogeumgo_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AE59D-1FC3-4151-A63B-44F84D1C3DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55012B-6FCD-4001-BD3A-B8FC2333DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$R$47:$R$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$AG$47:$AI$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="271">
   <si>
     <t>HOIGYE_CODE</t>
   </si>
@@ -845,6 +845,22 @@
   </si>
   <si>
     <t>20251016</t>
+  </si>
+  <si>
+    <t>세입세출일계집계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_DT</t>
+  </si>
+  <si>
+    <t>PROC_DT</t>
+  </si>
+  <si>
+    <t>GISDT</t>
+  </si>
+  <si>
+    <t>TAX_SUNP_IP_AMT</t>
   </si>
 </sst>
 </file>
@@ -882,7 +898,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -944,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,8 +997,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>725995</xdr:colOff>
+      <xdr:colOff>344995</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>181516</xdr:rowOff>
     </xdr:to>
@@ -1361,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP239"/>
+  <dimension ref="A1:AP240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N40" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60"/>
+    <sheetView tabSelected="1" topLeftCell="Y43" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47:Z239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1418,7 @@
     <col min="13" max="13" width="24.375" customWidth="1"/>
     <col min="14" max="14" width="19.625" customWidth="1"/>
     <col min="15" max="15" width="24.5" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="7.5" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="21.625" customWidth="1"/>
@@ -2373,11 +2407,11 @@
         <v>48</v>
       </c>
       <c r="T17" s="4">
-        <f>C8-R8</f>
-        <v>-201767091</v>
-      </c>
-    </row>
-    <row r="45" spans="12:26" x14ac:dyDescent="0.3">
+        <f>C8-R4</f>
+        <v>184287703</v>
+      </c>
+    </row>
+    <row r="45" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>50</v>
       </c>
@@ -2390,8 +2424,11 @@
       <c r="Y45" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="47" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L47" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2441,7 @@
       <c r="P47" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R47" s="10" t="s">
+      <c r="R47" s="13" t="s">
         <v>204</v>
       </c>
       <c r="T47" s="1" t="s">
@@ -2425,8 +2462,23 @@
       <c r="Z47" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L48" s="5" t="s">
         <v>53</v>
       </c>
@@ -2461,8 +2513,24 @@
       <c r="Z48" s="6">
         <v>187184380</v>
       </c>
-    </row>
-    <row r="49" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>187184380</v>
+      </c>
+      <c r="AG48" t="b">
+        <f>AE48=Z48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L49" s="5" t="s">
         <v>54</v>
       </c>
@@ -2497,8 +2565,24 @@
       <c r="Z49" s="6">
         <v>18578130</v>
       </c>
-    </row>
-    <row r="50" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE49" s="6">
+        <v>18578130</v>
+      </c>
+      <c r="AG49" t="b">
+        <f t="shared" ref="AG49:AG112" si="1">AE49=Z49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L50" s="5" t="s">
         <v>55</v>
       </c>
@@ -2533,8 +2617,24 @@
       <c r="Z50" s="6">
         <v>51378290</v>
       </c>
-    </row>
-    <row r="51" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>51378290</v>
+      </c>
+      <c r="AG50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L51" s="5" t="s">
         <v>56</v>
       </c>
@@ -2569,8 +2669,24 @@
       <c r="Z51" s="6">
         <v>85704670</v>
       </c>
-    </row>
-    <row r="52" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>85704670</v>
+      </c>
+      <c r="AG51" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L52" s="5" t="s">
         <v>57</v>
       </c>
@@ -2605,34 +2721,50 @@
       <c r="Z52" s="6">
         <v>373884330</v>
       </c>
-    </row>
-    <row r="53" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L53" s="5" t="s">
+      <c r="AB52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE52" s="6">
+        <v>373884330</v>
+      </c>
+      <c r="AG52" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="12:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="8">
         <v>10549320</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="8">
         <v>10549320</v>
       </c>
-      <c r="R53" t="b">
+      <c r="R53" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="U53" s="5" t="s">
+      <c r="U53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="V53" s="5" t="s">
+      <c r="V53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="8">
         <v>61760</v>
       </c>
       <c r="Y53" s="5" t="s">
@@ -2641,8 +2773,29 @@
       <c r="Z53" s="6">
         <v>248272740</v>
       </c>
-    </row>
-    <row r="54" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE53" s="8">
+        <v>527787210</v>
+      </c>
+      <c r="AG53" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="14">
+        <f>AE53-Z53</f>
+        <v>279514470</v>
+      </c>
+      <c r="AI53" s="14"/>
+    </row>
+    <row r="54" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L54" s="5" t="s">
         <v>59</v>
       </c>
@@ -2677,8 +2830,24 @@
       <c r="Z54" s="6">
         <v>94403700</v>
       </c>
-    </row>
-    <row r="55" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>94403700</v>
+      </c>
+      <c r="AG54" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2713,8 +2882,24 @@
       <c r="Z55" s="6">
         <v>6089080</v>
       </c>
-    </row>
-    <row r="56" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>6089080</v>
+      </c>
+      <c r="AG55" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L56" s="5" t="s">
         <v>61</v>
       </c>
@@ -2749,8 +2934,24 @@
       <c r="Z56" s="6">
         <v>1079002410</v>
       </c>
-    </row>
-    <row r="57" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>1079002410</v>
+      </c>
+      <c r="AG56" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L57" s="5" t="s">
         <v>62</v>
       </c>
@@ -2785,8 +2986,24 @@
       <c r="Z57" s="6">
         <v>17575460</v>
       </c>
-    </row>
-    <row r="58" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>17575460</v>
+      </c>
+      <c r="AG57" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L58" s="5" t="s">
         <v>63</v>
       </c>
@@ -2821,8 +3038,24 @@
       <c r="Z58" s="6">
         <v>24857820</v>
       </c>
-    </row>
-    <row r="59" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>24857820</v>
+      </c>
+      <c r="AG58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L59" s="5" t="s">
         <v>64</v>
       </c>
@@ -2857,8 +3090,24 @@
       <c r="Z59" s="6">
         <v>38726550</v>
       </c>
-    </row>
-    <row r="60" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE59" s="6">
+        <v>38726550</v>
+      </c>
+      <c r="AG59" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L60" s="5" t="s">
         <v>65</v>
       </c>
@@ -2893,8 +3142,24 @@
       <c r="Z60" s="6">
         <v>32449590</v>
       </c>
-    </row>
-    <row r="61" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE60" s="6">
+        <v>32449590</v>
+      </c>
+      <c r="AG60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L61" s="5" t="s">
         <v>66</v>
       </c>
@@ -2929,8 +3194,24 @@
       <c r="Z61" s="6">
         <v>59656720</v>
       </c>
-    </row>
-    <row r="62" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE61" s="6">
+        <v>59656720</v>
+      </c>
+      <c r="AG61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L62" s="5" t="s">
         <v>67</v>
       </c>
@@ -2965,8 +3246,24 @@
       <c r="Z62" s="6">
         <v>30650380</v>
       </c>
-    </row>
-    <row r="63" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE62" s="6">
+        <v>30650380</v>
+      </c>
+      <c r="AG62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L63" s="5" t="s">
         <v>68</v>
       </c>
@@ -3001,8 +3298,24 @@
       <c r="Z63" s="6">
         <v>131234440</v>
       </c>
-    </row>
-    <row r="64" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>131234440</v>
+      </c>
+      <c r="AG63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:35" x14ac:dyDescent="0.3">
       <c r="L64" s="5" t="s">
         <v>69</v>
       </c>
@@ -3037,8 +3350,24 @@
       <c r="Z64" s="6">
         <v>5269000</v>
       </c>
-    </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>5269000</v>
+      </c>
+      <c r="AG64" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L65" s="5" t="s">
         <v>70</v>
       </c>
@@ -3073,8 +3402,24 @@
       <c r="Z65" s="6">
         <v>7663110</v>
       </c>
-    </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE65" s="6">
+        <v>7663110</v>
+      </c>
+      <c r="AG65" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L66" s="5" t="s">
         <v>71</v>
       </c>
@@ -3109,8 +3454,24 @@
       <c r="Z66" s="6">
         <v>16243270</v>
       </c>
-    </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE66" s="6">
+        <v>16243270</v>
+      </c>
+      <c r="AG66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L67" s="5" t="s">
         <v>72</v>
       </c>
@@ -3145,8 +3506,24 @@
       <c r="Z67" s="6">
         <v>10049710</v>
       </c>
-    </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE67" s="6">
+        <v>10049710</v>
+      </c>
+      <c r="AG67" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L68" s="5" t="s">
         <v>73</v>
       </c>
@@ -3181,8 +3558,24 @@
       <c r="Z68" s="6">
         <v>12021780</v>
       </c>
-    </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>12021780</v>
+      </c>
+      <c r="AG68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L69" s="5" t="s">
         <v>74</v>
       </c>
@@ -3217,8 +3610,24 @@
       <c r="Z69" s="6">
         <v>512897030</v>
       </c>
-    </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE69" s="6">
+        <v>512897030</v>
+      </c>
+      <c r="AG69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L70" s="5" t="s">
         <v>75</v>
       </c>
@@ -3253,8 +3662,24 @@
       <c r="Z70" s="6">
         <v>268718760</v>
       </c>
-    </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE70" s="6">
+        <v>268718760</v>
+      </c>
+      <c r="AG70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L71" s="5" t="s">
         <v>76</v>
       </c>
@@ -3289,8 +3714,24 @@
       <c r="Z71" s="6">
         <v>10978280</v>
       </c>
-    </row>
-    <row r="72" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE71" s="6">
+        <v>10978280</v>
+      </c>
+      <c r="AG71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L72" s="5" t="s">
         <v>77</v>
       </c>
@@ -3325,8 +3766,24 @@
       <c r="Z72" s="6">
         <v>87176940</v>
       </c>
-    </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>87176940</v>
+      </c>
+      <c r="AG72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L73" s="5" t="s">
         <v>78</v>
       </c>
@@ -3361,8 +3818,24 @@
       <c r="Z73" s="6">
         <v>8502030</v>
       </c>
-    </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE73" s="6">
+        <v>8502030</v>
+      </c>
+      <c r="AG73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L74" s="5" t="s">
         <v>79</v>
       </c>
@@ -3397,8 +3870,24 @@
       <c r="Z74" s="6">
         <v>1046487710</v>
       </c>
-    </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE74" s="6">
+        <v>1046487710</v>
+      </c>
+      <c r="AG74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L75" s="5" t="s">
         <v>80</v>
       </c>
@@ -3433,8 +3922,24 @@
       <c r="Z75" s="6">
         <v>23639950</v>
       </c>
-    </row>
-    <row r="76" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>23639950</v>
+      </c>
+      <c r="AG75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L76" s="5" t="s">
         <v>81</v>
       </c>
@@ -3469,8 +3974,24 @@
       <c r="Z76" s="6">
         <v>61944700</v>
       </c>
-    </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>61944700</v>
+      </c>
+      <c r="AG76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L77" s="5" t="s">
         <v>82</v>
       </c>
@@ -3505,8 +4026,24 @@
       <c r="Z77" s="6">
         <v>281799720</v>
       </c>
-    </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>281799720</v>
+      </c>
+      <c r="AG77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L78" s="5" t="s">
         <v>83</v>
       </c>
@@ -3541,8 +4078,24 @@
       <c r="Z78" s="6">
         <v>97694980</v>
       </c>
-    </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>97694980</v>
+      </c>
+      <c r="AG78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L79" s="5" t="s">
         <v>84</v>
       </c>
@@ -3577,8 +4130,24 @@
       <c r="Z79" s="6">
         <v>35060780</v>
       </c>
-    </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>35060780</v>
+      </c>
+      <c r="AG79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L80" s="5" t="s">
         <v>85</v>
       </c>
@@ -3613,8 +4182,24 @@
       <c r="Z80" s="6">
         <v>121544760</v>
       </c>
-    </row>
-    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>121544760</v>
+      </c>
+      <c r="AG80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L81" s="5" t="s">
         <v>86</v>
       </c>
@@ -3649,8 +4234,24 @@
       <c r="Z81" s="6">
         <v>53570300</v>
       </c>
-    </row>
-    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>53570300</v>
+      </c>
+      <c r="AG81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L82" s="5" t="s">
         <v>87</v>
       </c>
@@ -3685,8 +4286,24 @@
       <c r="Z82" s="6">
         <v>308431270</v>
       </c>
-    </row>
-    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>308431270</v>
+      </c>
+      <c r="AG82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L83" s="5" t="s">
         <v>88</v>
       </c>
@@ -3721,8 +4338,24 @@
       <c r="Z83" s="6">
         <v>8538050</v>
       </c>
-    </row>
-    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>8538050</v>
+      </c>
+      <c r="AG83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L84" s="5" t="s">
         <v>89</v>
       </c>
@@ -3757,8 +4390,24 @@
       <c r="Z84" s="6">
         <v>20105490</v>
       </c>
-    </row>
-    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>20105490</v>
+      </c>
+      <c r="AG84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L85" s="5" t="s">
         <v>90</v>
       </c>
@@ -3793,8 +4442,24 @@
       <c r="Z85" s="6">
         <v>9179240</v>
       </c>
-    </row>
-    <row r="86" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>9179240</v>
+      </c>
+      <c r="AG85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L86" s="5" t="s">
         <v>91</v>
       </c>
@@ -3829,8 +4494,24 @@
       <c r="Z86" s="6">
         <v>14753390</v>
       </c>
-    </row>
-    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>14753390</v>
+      </c>
+      <c r="AG86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L87" s="5" t="s">
         <v>92</v>
       </c>
@@ -3865,8 +4546,24 @@
       <c r="Z87" s="6">
         <v>82780890</v>
       </c>
-    </row>
-    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>82780890</v>
+      </c>
+      <c r="AG87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L88" s="5" t="s">
         <v>93</v>
       </c>
@@ -3901,8 +4598,24 @@
       <c r="Z88" s="6">
         <v>4706000000</v>
       </c>
-    </row>
-    <row r="89" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE88" s="6">
+        <v>4706000000</v>
+      </c>
+      <c r="AG88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L89" s="5" t="s">
         <v>94</v>
       </c>
@@ -3937,8 +4650,24 @@
       <c r="Z89" s="6">
         <v>337584730</v>
       </c>
-    </row>
-    <row r="90" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>337584730</v>
+      </c>
+      <c r="AG89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L90" s="5" t="s">
         <v>95</v>
       </c>
@@ -3973,8 +4702,24 @@
       <c r="Z90" s="6">
         <v>221129030</v>
       </c>
-    </row>
-    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB90" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC90" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD90" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE90" s="6">
+        <v>221129030</v>
+      </c>
+      <c r="AG90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L91" s="5" t="s">
         <v>96</v>
       </c>
@@ -4009,8 +4754,24 @@
       <c r="Z91" s="6">
         <v>113641525</v>
       </c>
-    </row>
-    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB91" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC91" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD91" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>113641525</v>
+      </c>
+      <c r="AG91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L92" s="5" t="s">
         <v>97</v>
       </c>
@@ -4045,8 +4806,24 @@
       <c r="Z92" s="6">
         <v>27237760</v>
       </c>
-    </row>
-    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB92" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC92" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD92" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>27237760</v>
+      </c>
+      <c r="AG92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L93" s="5" t="s">
         <v>98</v>
       </c>
@@ -4081,8 +4858,24 @@
       <c r="Z93" s="6">
         <v>1059367387</v>
       </c>
-    </row>
-    <row r="94" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE93" s="6">
+        <v>1059367387</v>
+      </c>
+      <c r="AG93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L94" s="5" t="s">
         <v>99</v>
       </c>
@@ -4117,8 +4910,24 @@
       <c r="Z94" s="6">
         <v>290853938</v>
       </c>
-    </row>
-    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE94" s="6">
+        <v>290853938</v>
+      </c>
+      <c r="AG94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L95" s="5" t="s">
         <v>100</v>
       </c>
@@ -4153,8 +4962,24 @@
       <c r="Z95" s="6">
         <v>106620354</v>
       </c>
-    </row>
-    <row r="96" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE95" s="6">
+        <v>106620354</v>
+      </c>
+      <c r="AG95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L96" s="5" t="s">
         <v>101</v>
       </c>
@@ -4189,8 +5014,24 @@
       <c r="Z96" s="6">
         <v>34481162</v>
       </c>
-    </row>
-    <row r="97" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE96" s="6">
+        <v>34481162</v>
+      </c>
+      <c r="AG96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L97" s="5" t="s">
         <v>102</v>
       </c>
@@ -4225,8 +5066,24 @@
       <c r="Z97" s="6">
         <v>32105990</v>
       </c>
-    </row>
-    <row r="98" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB97" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC97" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD97" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE97" s="6">
+        <v>32105990</v>
+      </c>
+      <c r="AG97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L98" s="5" t="s">
         <v>103</v>
       </c>
@@ -4261,8 +5118,24 @@
       <c r="Z98" s="6">
         <v>41560889</v>
       </c>
-    </row>
-    <row r="99" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE98" s="6">
+        <v>41560889</v>
+      </c>
+      <c r="AG98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L99" s="5" t="s">
         <v>104</v>
       </c>
@@ -4297,8 +5170,24 @@
       <c r="Z99" s="6">
         <v>39768420</v>
       </c>
-    </row>
-    <row r="100" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE99" s="6">
+        <v>39768420</v>
+      </c>
+      <c r="AG99" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L100" s="5" t="s">
         <v>105</v>
       </c>
@@ -4333,8 +5222,24 @@
       <c r="Z100" s="6">
         <v>8297278530</v>
       </c>
-    </row>
-    <row r="101" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE100" s="6">
+        <v>8297278530</v>
+      </c>
+      <c r="AG100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L101" s="5" t="s">
         <v>106</v>
       </c>
@@ -4369,8 +5274,24 @@
       <c r="Z101" s="6">
         <v>10815873781</v>
       </c>
-    </row>
-    <row r="102" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE101" s="6">
+        <v>10815873781</v>
+      </c>
+      <c r="AG101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L102" s="5" t="s">
         <v>107</v>
       </c>
@@ -4405,8 +5326,24 @@
       <c r="Z102" s="6">
         <v>34341740</v>
       </c>
-    </row>
-    <row r="103" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE102" s="6">
+        <v>34341740</v>
+      </c>
+      <c r="AG102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L103" s="5" t="s">
         <v>108</v>
       </c>
@@ -4441,8 +5378,24 @@
       <c r="Z103" s="6">
         <v>8628180</v>
       </c>
-    </row>
-    <row r="104" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE103" s="6">
+        <v>8628180</v>
+      </c>
+      <c r="AG103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L104" s="5" t="s">
         <v>109</v>
       </c>
@@ -4477,8 +5430,24 @@
       <c r="Z104" s="6">
         <v>12581080</v>
       </c>
-    </row>
-    <row r="105" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE104" s="6">
+        <v>12581080</v>
+      </c>
+      <c r="AG104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L105" s="5" t="s">
         <v>110</v>
       </c>
@@ -4513,8 +5482,24 @@
       <c r="Z105" s="6">
         <v>13207840</v>
       </c>
-    </row>
-    <row r="106" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB105" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC105" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD105" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE105" s="6">
+        <v>13207840</v>
+      </c>
+      <c r="AG105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L106" s="5" t="s">
         <v>111</v>
       </c>
@@ -4549,8 +5534,24 @@
       <c r="Z106" s="6">
         <v>75942730</v>
       </c>
-    </row>
-    <row r="107" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE106" s="6">
+        <v>75942730</v>
+      </c>
+      <c r="AG106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L107" s="5" t="s">
         <v>112</v>
       </c>
@@ -4585,8 +5586,24 @@
       <c r="Z107" s="6">
         <v>15776940</v>
       </c>
-    </row>
-    <row r="108" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE107" s="6">
+        <v>15776940</v>
+      </c>
+      <c r="AG107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L108" s="5" t="s">
         <v>113</v>
       </c>
@@ -4621,8 +5638,24 @@
       <c r="Z108" s="6">
         <v>476234440</v>
       </c>
-    </row>
-    <row r="109" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE108" s="6">
+        <v>476234440</v>
+      </c>
+      <c r="AG108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L109" s="5" t="s">
         <v>114</v>
       </c>
@@ -4657,8 +5690,24 @@
       <c r="Z109" s="6">
         <v>251773930</v>
       </c>
-    </row>
-    <row r="110" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE109" s="6">
+        <v>251773930</v>
+      </c>
+      <c r="AG109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L110" s="5" t="s">
         <v>115</v>
       </c>
@@ -4693,8 +5742,24 @@
       <c r="Z110" s="6">
         <v>51194682</v>
       </c>
-    </row>
-    <row r="111" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB110" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD110" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE110" s="6">
+        <v>51194682</v>
+      </c>
+      <c r="AG110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L111" s="5" t="s">
         <v>116</v>
       </c>
@@ -4729,8 +5794,24 @@
       <c r="Z111" s="6">
         <v>4073709640</v>
       </c>
-    </row>
-    <row r="112" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB111" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC111" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD111" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE111" s="6">
+        <v>4073709640</v>
+      </c>
+      <c r="AG111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L112" s="5" t="s">
         <v>117</v>
       </c>
@@ -4765,8 +5846,24 @@
       <c r="Z112" s="6">
         <v>190728240</v>
       </c>
-    </row>
-    <row r="113" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB112" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC112" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD112" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE112" s="6">
+        <v>190728240</v>
+      </c>
+      <c r="AG112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L113" s="5" t="s">
         <v>118</v>
       </c>
@@ -4780,7 +5877,7 @@
         <v>63059160</v>
       </c>
       <c r="R113" t="b">
-        <f t="shared" ref="R113:R176" si="1">M113=P113</f>
+        <f t="shared" ref="R113:R176" si="2">M113=P113</f>
         <v>1</v>
       </c>
       <c r="T113" s="5" t="s">
@@ -4801,8 +5898,24 @@
       <c r="Z113" s="6">
         <v>1113040400</v>
       </c>
-    </row>
-    <row r="114" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB113" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC113" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD113" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE113" s="6">
+        <v>1113040400</v>
+      </c>
+      <c r="AG113" t="b">
+        <f t="shared" ref="AG113:AG176" si="3">AE113=Z113</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L114" s="5" t="s">
         <v>119</v>
       </c>
@@ -4816,7 +5929,7 @@
         <v>97169760</v>
       </c>
       <c r="R114" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T114" s="5" t="s">
@@ -4837,8 +5950,24 @@
       <c r="Z114" s="6">
         <v>32309180</v>
       </c>
-    </row>
-    <row r="115" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE114" s="6">
+        <v>32309180</v>
+      </c>
+      <c r="AG114" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L115" s="5" t="s">
         <v>120</v>
       </c>
@@ -4852,7 +5981,7 @@
         <v>68661160</v>
       </c>
       <c r="R115" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y115" s="5" t="s">
@@ -4861,8 +5990,24 @@
       <c r="Z115" s="6">
         <v>53120780</v>
       </c>
-    </row>
-    <row r="116" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB115" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC115" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD115" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE115" s="6">
+        <v>53120780</v>
+      </c>
+      <c r="AG115" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L116" s="5" t="s">
         <v>121</v>
       </c>
@@ -4876,7 +6021,7 @@
         <v>61565400</v>
       </c>
       <c r="R116" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y116" s="5" t="s">
@@ -4885,8 +6030,24 @@
       <c r="Z116" s="6">
         <v>101445000</v>
       </c>
-    </row>
-    <row r="117" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB116" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC116" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD116" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE116" s="6">
+        <v>101445000</v>
+      </c>
+      <c r="AG116" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L117" s="5" t="s">
         <v>122</v>
       </c>
@@ -4900,7 +6061,7 @@
         <v>174059380</v>
       </c>
       <c r="R117" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y117" s="5" t="s">
@@ -4909,8 +6070,24 @@
       <c r="Z117" s="6">
         <v>24796100</v>
       </c>
-    </row>
-    <row r="118" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE117" s="6">
+        <v>24796100</v>
+      </c>
+      <c r="AG117" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L118" s="5" t="s">
         <v>123</v>
       </c>
@@ -4924,7 +6101,7 @@
         <v>80426760</v>
       </c>
       <c r="R118" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y118" s="5" t="s">
@@ -4933,8 +6110,24 @@
       <c r="Z118" s="6">
         <v>43618920</v>
       </c>
-    </row>
-    <row r="119" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB118" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD118" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE118" s="6">
+        <v>43618920</v>
+      </c>
+      <c r="AG118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L119" s="5" t="s">
         <v>124</v>
       </c>
@@ -4948,7 +6141,7 @@
         <v>54327010</v>
       </c>
       <c r="R119" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y119" s="5" t="s">
@@ -4957,8 +6150,24 @@
       <c r="Z119" s="6">
         <v>61162580</v>
       </c>
-    </row>
-    <row r="120" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB119" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC119" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD119" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE119" s="6">
+        <v>61162580</v>
+      </c>
+      <c r="AG119" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L120" s="5" t="s">
         <v>125</v>
       </c>
@@ -4972,7 +6181,7 @@
         <v>120279080</v>
       </c>
       <c r="R120" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y120" s="5" t="s">
@@ -4981,8 +6190,24 @@
       <c r="Z120" s="6">
         <v>37034060</v>
       </c>
-    </row>
-    <row r="121" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB120" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC120" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD120" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE120" s="6">
+        <v>37034060</v>
+      </c>
+      <c r="AG120" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L121" s="5" t="s">
         <v>126</v>
       </c>
@@ -4996,7 +6221,7 @@
         <v>453681290</v>
       </c>
       <c r="R121" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y121" s="5" t="s">
@@ -5005,8 +6230,24 @@
       <c r="Z121" s="6">
         <v>39775710</v>
       </c>
-    </row>
-    <row r="122" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB121" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC121" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD121" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE121" s="6">
+        <v>39775710</v>
+      </c>
+      <c r="AG121" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L122" s="5" t="s">
         <v>127</v>
       </c>
@@ -5020,7 +6261,7 @@
         <v>4570</v>
       </c>
       <c r="R122" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y122" s="5" t="s">
@@ -5029,8 +6270,24 @@
       <c r="Z122" s="6">
         <v>28875120</v>
       </c>
-    </row>
-    <row r="123" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE122" s="6">
+        <v>28875120</v>
+      </c>
+      <c r="AG122" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L123" s="5" t="s">
         <v>128</v>
       </c>
@@ -5044,7 +6301,7 @@
         <v>1389294720</v>
       </c>
       <c r="R123" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y123" s="5" t="s">
@@ -5053,8 +6310,24 @@
       <c r="Z123" s="6">
         <v>81113240</v>
       </c>
-    </row>
-    <row r="124" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE123" s="6">
+        <v>81113240</v>
+      </c>
+      <c r="AG123" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L124" s="5" t="s">
         <v>129</v>
       </c>
@@ -5068,7 +6341,7 @@
         <v>9269446</v>
       </c>
       <c r="R124" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y124" s="5" t="s">
@@ -5077,8 +6350,24 @@
       <c r="Z124" s="6">
         <v>9253520</v>
       </c>
-    </row>
-    <row r="125" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE124" s="6">
+        <v>9253520</v>
+      </c>
+      <c r="AG124" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L125" s="5" t="s">
         <v>130</v>
       </c>
@@ -5092,7 +6381,7 @@
         <v>45065840</v>
       </c>
       <c r="R125" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y125" s="5" t="s">
@@ -5101,8 +6390,24 @@
       <c r="Z125" s="6">
         <v>4862000</v>
       </c>
-    </row>
-    <row r="126" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB125" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC125" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD125" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE125" s="6">
+        <v>4862000</v>
+      </c>
+      <c r="AG125" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L126" s="5" t="s">
         <v>131</v>
       </c>
@@ -5116,7 +6421,7 @@
         <v>55320070</v>
       </c>
       <c r="R126" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y126" s="5" t="s">
@@ -5125,8 +6430,24 @@
       <c r="Z126" s="6">
         <v>7904430</v>
       </c>
-    </row>
-    <row r="127" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE126" s="6">
+        <v>7904430</v>
+      </c>
+      <c r="AG126" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L127" s="5" t="s">
         <v>132</v>
       </c>
@@ -5140,7 +6461,7 @@
         <v>102898140</v>
       </c>
       <c r="R127" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y127" s="5" t="s">
@@ -5149,8 +6470,24 @@
       <c r="Z127" s="6">
         <v>25039830</v>
       </c>
-    </row>
-    <row r="128" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB127" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC127" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD127" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE127" s="6">
+        <v>25039830</v>
+      </c>
+      <c r="AG127" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L128" s="5" t="s">
         <v>133</v>
       </c>
@@ -5164,7 +6501,7 @@
         <v>53996760</v>
       </c>
       <c r="R128" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y128" s="5" t="s">
@@ -5173,8 +6510,24 @@
       <c r="Z128" s="6">
         <v>72351700</v>
       </c>
-    </row>
-    <row r="129" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB128" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC128" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD128" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE128" s="6">
+        <v>72351700</v>
+      </c>
+      <c r="AG128" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L129" s="5" t="s">
         <v>134</v>
       </c>
@@ -5188,7 +6541,7 @@
         <v>81306230</v>
       </c>
       <c r="R129" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y129" s="5" t="s">
@@ -5197,22 +6550,38 @@
       <c r="Z129" s="6">
         <v>423586220</v>
       </c>
-    </row>
-    <row r="130" spans="12:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L130" s="7" t="s">
+      <c r="AB129" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC129" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD129" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE129" s="6">
+        <v>423586220</v>
+      </c>
+      <c r="AG129" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="12:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M130" s="8">
+      <c r="M130" s="11">
         <v>108531100</v>
       </c>
-      <c r="O130" s="7" t="s">
+      <c r="O130" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="P130" s="8">
+      <c r="P130" s="11">
         <v>108531100</v>
       </c>
-      <c r="R130" s="9" t="b">
-        <f t="shared" si="1"/>
+      <c r="R130" s="12" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y130" s="5" t="s">
@@ -5221,8 +6590,24 @@
       <c r="Z130" s="6">
         <v>227233310</v>
       </c>
-    </row>
-    <row r="131" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB130" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC130" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD130" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE130" s="6">
+        <v>227233310</v>
+      </c>
+      <c r="AG130" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L131" s="5" t="s">
         <v>135</v>
       </c>
@@ -5236,7 +6621,7 @@
         <v>90544940</v>
       </c>
       <c r="R131" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y131" s="5" t="s">
@@ -5245,8 +6630,24 @@
       <c r="Z131" s="6">
         <v>1051925130</v>
       </c>
-    </row>
-    <row r="132" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB131" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC131" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD131" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE131" s="6">
+        <v>1051925130</v>
+      </c>
+      <c r="AG131" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L132" s="5" t="s">
         <v>136</v>
       </c>
@@ -5260,7 +6661,7 @@
         <v>3485703219</v>
       </c>
       <c r="R132" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y132" s="5" t="s">
@@ -5269,8 +6670,24 @@
       <c r="Z132" s="6">
         <v>17367590</v>
       </c>
-    </row>
-    <row r="133" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB132" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC132" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD132" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE132" s="6">
+        <v>17367590</v>
+      </c>
+      <c r="AG132" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L133" s="5" t="s">
         <v>137</v>
       </c>
@@ -5284,7 +6701,7 @@
         <v>211653674</v>
       </c>
       <c r="R133" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y133" s="5" t="s">
@@ -5293,8 +6710,24 @@
       <c r="Z133" s="6">
         <v>30239040</v>
       </c>
-    </row>
-    <row r="134" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB133" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC133" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD133" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE133" s="6">
+        <v>30239040</v>
+      </c>
+      <c r="AG133" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L134" s="5" t="s">
         <v>138</v>
       </c>
@@ -5308,7 +6741,7 @@
         <v>1749286000</v>
       </c>
       <c r="R134" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y134" s="5" t="s">
@@ -5317,8 +6750,24 @@
       <c r="Z134" s="6">
         <v>103059810</v>
       </c>
-    </row>
-    <row r="135" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE134" s="6">
+        <v>103059810</v>
+      </c>
+      <c r="AG134" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L135" s="5" t="s">
         <v>139</v>
       </c>
@@ -5332,7 +6781,7 @@
         <v>153880350</v>
       </c>
       <c r="R135" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y135" s="5" t="s">
@@ -5341,8 +6790,24 @@
       <c r="Z135" s="6">
         <v>51306130</v>
       </c>
-    </row>
-    <row r="136" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB135" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC135" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD135" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE135" s="6">
+        <v>51306130</v>
+      </c>
+      <c r="AG135" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L136" s="5" t="s">
         <v>140</v>
       </c>
@@ -5356,7 +6821,7 @@
         <v>72094</v>
       </c>
       <c r="R136" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y136" s="5" t="s">
@@ -5365,8 +6830,24 @@
       <c r="Z136" s="6">
         <v>33220100</v>
       </c>
-    </row>
-    <row r="137" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB136" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC136" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD136" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE136" s="6">
+        <v>33220100</v>
+      </c>
+      <c r="AG136" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L137" s="5" t="s">
         <v>141</v>
       </c>
@@ -5380,7 +6861,7 @@
         <v>134341180</v>
       </c>
       <c r="R137" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y137" s="5" t="s">
@@ -5389,8 +6870,24 @@
       <c r="Z137" s="6">
         <v>57800660</v>
       </c>
-    </row>
-    <row r="138" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB137" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC137" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD137" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE137" s="6">
+        <v>57800660</v>
+      </c>
+      <c r="AG137" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L138" s="5" t="s">
         <v>142</v>
       </c>
@@ -5404,7 +6901,7 @@
         <v>12546950</v>
       </c>
       <c r="R138" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y138" s="5" t="s">
@@ -5413,8 +6910,24 @@
       <c r="Z138" s="6">
         <v>52566320</v>
       </c>
-    </row>
-    <row r="139" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB138" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC138" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD138" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE138" s="6">
+        <v>52566320</v>
+      </c>
+      <c r="AG138" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L139" s="5" t="s">
         <v>143</v>
       </c>
@@ -5428,7 +6941,7 @@
         <v>38435830</v>
       </c>
       <c r="R139" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y139" s="5" t="s">
@@ -5437,8 +6950,24 @@
       <c r="Z139" s="6">
         <v>73851970</v>
       </c>
-    </row>
-    <row r="140" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB139" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC139" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD139" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE139" s="6">
+        <v>73851970</v>
+      </c>
+      <c r="AG139" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L140" s="5" t="s">
         <v>144</v>
       </c>
@@ -5452,7 +6981,7 @@
         <v>12687770</v>
       </c>
       <c r="R140" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y140" s="5" t="s">
@@ -5461,8 +6990,24 @@
       <c r="Z140" s="6">
         <v>61878830</v>
       </c>
-    </row>
-    <row r="141" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB140" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC140" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD140" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE140" s="6">
+        <v>61878830</v>
+      </c>
+      <c r="AG140" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L141" s="5" t="s">
         <v>145</v>
       </c>
@@ -5476,7 +7021,7 @@
         <v>23362760</v>
       </c>
       <c r="R141" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y141" s="5" t="s">
@@ -5485,8 +7030,24 @@
       <c r="Z141" s="6">
         <v>32871700</v>
       </c>
-    </row>
-    <row r="142" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB141" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC141" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD141" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE141" s="6">
+        <v>32871700</v>
+      </c>
+      <c r="AG141" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L142" s="5" t="s">
         <v>146</v>
       </c>
@@ -5500,7 +7061,7 @@
         <v>53055070</v>
       </c>
       <c r="R142" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y142" s="5" t="s">
@@ -5509,8 +7070,24 @@
       <c r="Z142" s="6">
         <v>105548610</v>
       </c>
-    </row>
-    <row r="143" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE142" s="6">
+        <v>105548610</v>
+      </c>
+      <c r="AG142" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L143" s="5" t="s">
         <v>147</v>
       </c>
@@ -5524,7 +7101,7 @@
         <v>35274120</v>
       </c>
       <c r="R143" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y143" s="5" t="s">
@@ -5533,8 +7110,24 @@
       <c r="Z143" s="6">
         <v>10947580</v>
       </c>
-    </row>
-    <row r="144" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB143" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC143" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD143" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE143" s="6">
+        <v>10947580</v>
+      </c>
+      <c r="AG143" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L144" s="5" t="s">
         <v>148</v>
       </c>
@@ -5548,7 +7141,7 @@
         <v>80977351</v>
       </c>
       <c r="R144" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y144" s="5" t="s">
@@ -5557,8 +7150,24 @@
       <c r="Z144" s="6">
         <v>100597640</v>
       </c>
-    </row>
-    <row r="145" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB144" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC144" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD144" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE144" s="6">
+        <v>100597640</v>
+      </c>
+      <c r="AG144" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L145" s="5" t="s">
         <v>149</v>
       </c>
@@ -5572,7 +7181,7 @@
         <v>46747980</v>
       </c>
       <c r="R145" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y145" s="5" t="s">
@@ -5581,8 +7190,24 @@
       <c r="Z145" s="6">
         <v>18613040</v>
       </c>
-    </row>
-    <row r="146" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB145" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC145" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD145" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE145" s="6">
+        <v>18613040</v>
+      </c>
+      <c r="AG145" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L146" s="5" t="s">
         <v>150</v>
       </c>
@@ -5596,7 +7221,7 @@
         <v>36254168</v>
       </c>
       <c r="R146" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y146" s="5" t="s">
@@ -5605,8 +7230,24 @@
       <c r="Z146" s="6">
         <v>26550580</v>
       </c>
-    </row>
-    <row r="147" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB146" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC146" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD146" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE146" s="6">
+        <v>26550580</v>
+      </c>
+      <c r="AG146" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L147" s="5" t="s">
         <v>151</v>
       </c>
@@ -5620,7 +7261,7 @@
         <v>138359260</v>
       </c>
       <c r="R147" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y147" s="5" t="s">
@@ -5629,8 +7270,24 @@
       <c r="Z147" s="6">
         <v>17036470</v>
       </c>
-    </row>
-    <row r="148" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB147" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC147" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD147" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE147" s="6">
+        <v>17036470</v>
+      </c>
+      <c r="AG147" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L148" s="5" t="s">
         <v>152</v>
       </c>
@@ -5644,7 +7301,7 @@
         <v>1046097350</v>
       </c>
       <c r="R148" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y148" s="5" t="s">
@@ -5653,8 +7310,24 @@
       <c r="Z148" s="6">
         <v>445239000</v>
       </c>
-    </row>
-    <row r="149" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE148" s="6">
+        <v>445239000</v>
+      </c>
+      <c r="AG148" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L149" s="5" t="s">
         <v>153</v>
       </c>
@@ -5668,7 +7341,7 @@
         <v>89367520</v>
       </c>
       <c r="R149" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y149" s="5" t="s">
@@ -5677,8 +7350,24 @@
       <c r="Z149" s="6">
         <v>334781410</v>
       </c>
-    </row>
-    <row r="150" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB149" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC149" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD149" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE149" s="6">
+        <v>334781410</v>
+      </c>
+      <c r="AG149" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L150" s="5" t="s">
         <v>154</v>
       </c>
@@ -5692,7 +7381,7 @@
         <v>35306730</v>
       </c>
       <c r="R150" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y150" s="5" t="s">
@@ -5701,8 +7390,24 @@
       <c r="Z150" s="6">
         <v>1167761466</v>
       </c>
-    </row>
-    <row r="151" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB150" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC150" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD150" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE150" s="6">
+        <v>1167761466</v>
+      </c>
+      <c r="AG150" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L151" s="5" t="s">
         <v>155</v>
       </c>
@@ -5716,7 +7421,7 @@
         <v>161916320</v>
       </c>
       <c r="R151" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y151" s="5" t="s">
@@ -5725,8 +7430,24 @@
       <c r="Z151" s="6">
         <v>42642080</v>
       </c>
-    </row>
-    <row r="152" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB151" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC151" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD151" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE151" s="6">
+        <v>42642080</v>
+      </c>
+      <c r="AG151" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L152" s="5" t="s">
         <v>156</v>
       </c>
@@ -5740,7 +7461,7 @@
         <v>56630220</v>
       </c>
       <c r="R152" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y152" s="5" t="s">
@@ -5749,8 +7470,24 @@
       <c r="Z152" s="6">
         <v>50159400</v>
       </c>
-    </row>
-    <row r="153" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE152" s="6">
+        <v>50159400</v>
+      </c>
+      <c r="AG152" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L153" s="5" t="s">
         <v>157</v>
       </c>
@@ -5764,7 +7501,7 @@
         <v>1685020160</v>
       </c>
       <c r="R153" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y153" s="5" t="s">
@@ -5773,8 +7510,24 @@
       <c r="Z153" s="6">
         <v>97817630</v>
       </c>
-    </row>
-    <row r="154" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB153" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC153" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD153" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE153" s="6">
+        <v>97817630</v>
+      </c>
+      <c r="AG153" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L154" s="5" t="s">
         <v>158</v>
       </c>
@@ -5788,7 +7541,7 @@
         <v>77858140</v>
       </c>
       <c r="R154" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y154" s="5" t="s">
@@ -5797,8 +7550,24 @@
       <c r="Z154" s="6">
         <v>41797110</v>
       </c>
-    </row>
-    <row r="155" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB154" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC154" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD154" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE154" s="6">
+        <v>41797110</v>
+      </c>
+      <c r="AG154" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L155" s="5" t="s">
         <v>159</v>
       </c>
@@ -5812,7 +7581,7 @@
         <v>16080690</v>
       </c>
       <c r="R155" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y155" s="5" t="s">
@@ -5821,8 +7590,24 @@
       <c r="Z155" s="6">
         <v>72940800</v>
       </c>
-    </row>
-    <row r="156" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB155" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC155" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD155" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE155" s="6">
+        <v>72940800</v>
+      </c>
+      <c r="AG155" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L156" s="5" t="s">
         <v>160</v>
       </c>
@@ -5836,7 +7621,7 @@
         <v>147845560</v>
       </c>
       <c r="R156" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y156" s="5" t="s">
@@ -5845,8 +7630,24 @@
       <c r="Z156" s="6">
         <v>34404530</v>
       </c>
-    </row>
-    <row r="157" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB156" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC156" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD156" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE156" s="6">
+        <v>34404530</v>
+      </c>
+      <c r="AG156" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L157" s="5" t="s">
         <v>161</v>
       </c>
@@ -5860,7 +7661,7 @@
         <v>26905500</v>
       </c>
       <c r="R157" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y157" s="5" t="s">
@@ -5869,8 +7670,24 @@
       <c r="Z157" s="6">
         <v>81122630</v>
       </c>
-    </row>
-    <row r="158" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB157" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC157" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD157" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE157" s="6">
+        <v>81122630</v>
+      </c>
+      <c r="AG157" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L158" s="5" t="s">
         <v>162</v>
       </c>
@@ -5884,7 +7701,7 @@
         <v>23352790</v>
       </c>
       <c r="R158" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y158" s="5" t="s">
@@ -5893,8 +7710,24 @@
       <c r="Z158" s="6">
         <v>3475610559</v>
       </c>
-    </row>
-    <row r="159" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB158" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC158" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD158" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE158" s="6">
+        <v>3475610559</v>
+      </c>
+      <c r="AG158" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L159" s="5" t="s">
         <v>163</v>
       </c>
@@ -5908,7 +7741,7 @@
         <v>23440540</v>
       </c>
       <c r="R159" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y159" s="5" t="s">
@@ -5917,8 +7750,24 @@
       <c r="Z159" s="6">
         <v>114753274</v>
       </c>
-    </row>
-    <row r="160" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB159" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC159" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD159" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE159" s="6">
+        <v>114753274</v>
+      </c>
+      <c r="AG159" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L160" s="5" t="s">
         <v>164</v>
       </c>
@@ -5932,7 +7781,7 @@
         <v>57736570</v>
       </c>
       <c r="R160" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y160" s="5" t="s">
@@ -5941,8 +7790,24 @@
       <c r="Z160" s="6">
         <v>6670990</v>
       </c>
-    </row>
-    <row r="161" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB160" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC160" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD160" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE160" s="6">
+        <v>6670990</v>
+      </c>
+      <c r="AG160" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L161" s="5" t="s">
         <v>165</v>
       </c>
@@ -5956,7 +7821,7 @@
         <v>49414030</v>
       </c>
       <c r="R161" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y161" s="5" t="s">
@@ -5965,22 +7830,38 @@
       <c r="Z161" s="6">
         <v>167766180</v>
       </c>
-    </row>
-    <row r="162" spans="12:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L162" s="7" t="s">
+      <c r="AB161" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC161" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD161" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE161" s="6">
+        <v>167766180</v>
+      </c>
+      <c r="AG161" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="12:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L162" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="M162" s="8">
+      <c r="M162" s="11">
         <v>188852700</v>
       </c>
-      <c r="O162" s="7" t="s">
+      <c r="O162" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="P162" s="8">
+      <c r="P162" s="11">
         <v>188852700</v>
       </c>
-      <c r="R162" s="9" t="b">
-        <f t="shared" si="1"/>
+      <c r="R162" s="12" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y162" s="5" t="s">
@@ -5989,8 +7870,24 @@
       <c r="Z162" s="6">
         <v>10842350</v>
       </c>
-    </row>
-    <row r="163" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB162" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC162" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD162" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE162" s="6">
+        <v>10842350</v>
+      </c>
+      <c r="AG162" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L163" s="5" t="s">
         <v>166</v>
       </c>
@@ -6004,7 +7901,7 @@
         <v>40962320</v>
       </c>
       <c r="R163" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y163" s="5" t="s">
@@ -6013,8 +7910,24 @@
       <c r="Z163" s="6">
         <v>11769730</v>
       </c>
-    </row>
-    <row r="164" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB163" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC163" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD163" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE163" s="6">
+        <v>11769730</v>
+      </c>
+      <c r="AG163" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L164" s="5" t="s">
         <v>167</v>
       </c>
@@ -6028,7 +7941,7 @@
         <v>66864300</v>
       </c>
       <c r="R164" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y164" s="5" t="s">
@@ -6037,8 +7950,24 @@
       <c r="Z164" s="6">
         <v>102984294</v>
       </c>
-    </row>
-    <row r="165" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB164" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC164" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD164" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE164" s="6">
+        <v>102984294</v>
+      </c>
+      <c r="AG164" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L165" s="5" t="s">
         <v>168</v>
       </c>
@@ -6052,7 +7981,7 @@
         <v>182664850</v>
       </c>
       <c r="R165" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y165" s="5" t="s">
@@ -6061,8 +7990,24 @@
       <c r="Z165" s="6">
         <v>428070080</v>
       </c>
-    </row>
-    <row r="166" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB165" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC165" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD165" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE165" s="6">
+        <v>428070080</v>
+      </c>
+      <c r="AG165" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L166" s="5" t="s">
         <v>169</v>
       </c>
@@ -6076,7 +8021,7 @@
         <v>56814490</v>
       </c>
       <c r="R166" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y166" s="5" t="s">
@@ -6085,8 +8030,24 @@
       <c r="Z166" s="6">
         <v>292442550</v>
       </c>
-    </row>
-    <row r="167" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB166" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC166" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD166" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE166" s="6">
+        <v>292442550</v>
+      </c>
+      <c r="AG166" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L167" s="5" t="s">
         <v>170</v>
       </c>
@@ -6100,7 +8061,7 @@
         <v>76725720</v>
       </c>
       <c r="R167" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y167" s="5" t="s">
@@ -6109,8 +8070,24 @@
       <c r="Z167" s="6">
         <v>6794800</v>
       </c>
-    </row>
-    <row r="168" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB167" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC167" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD167" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE167" s="6">
+        <v>6794800</v>
+      </c>
+      <c r="AG167" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L168" s="5" t="s">
         <v>171</v>
       </c>
@@ -6124,7 +8101,7 @@
         <v>417898370</v>
       </c>
       <c r="R168" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y168" s="5" t="s">
@@ -6133,8 +8110,24 @@
       <c r="Z168" s="6">
         <v>36866490</v>
       </c>
-    </row>
-    <row r="169" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB168" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC168" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD168" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE168" s="6">
+        <v>36866490</v>
+      </c>
+      <c r="AG168" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L169" s="5" t="s">
         <v>172</v>
       </c>
@@ -6148,7 +8141,7 @@
         <v>1557513490</v>
       </c>
       <c r="R169" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y169" s="5" t="s">
@@ -6157,8 +8150,24 @@
       <c r="Z169" s="6">
         <v>96154160</v>
       </c>
-    </row>
-    <row r="170" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB169" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC169" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD169" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE169" s="6">
+        <v>96154160</v>
+      </c>
+      <c r="AG169" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L170" s="5" t="s">
         <v>173</v>
       </c>
@@ -6172,7 +8181,7 @@
         <v>7059380</v>
       </c>
       <c r="R170" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y170" s="5" t="s">
@@ -6181,8 +8190,24 @@
       <c r="Z170" s="6">
         <v>1168497720</v>
       </c>
-    </row>
-    <row r="171" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB170" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC170" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD170" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE170" s="6">
+        <v>1168497720</v>
+      </c>
+      <c r="AG170" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L171" s="5" t="s">
         <v>174</v>
       </c>
@@ -6196,7 +8221,7 @@
         <v>22469820</v>
       </c>
       <c r="R171" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y171" s="5" t="s">
@@ -6205,8 +8230,24 @@
       <c r="Z171" s="6">
         <v>48281600</v>
       </c>
-    </row>
-    <row r="172" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB171" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC171" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD171" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE171" s="6">
+        <v>48281600</v>
+      </c>
+      <c r="AG171" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L172" s="5" t="s">
         <v>175</v>
       </c>
@@ -6220,7 +8261,7 @@
         <v>20514960</v>
       </c>
       <c r="R172" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y172" s="5" t="s">
@@ -6229,8 +8270,24 @@
       <c r="Z172" s="6">
         <v>27697880</v>
       </c>
-    </row>
-    <row r="173" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB172" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC172" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD172" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE172" s="6">
+        <v>27697880</v>
+      </c>
+      <c r="AG172" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L173" s="5" t="s">
         <v>176</v>
       </c>
@@ -6244,7 +8301,7 @@
         <v>22080400</v>
       </c>
       <c r="R173" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y173" s="5" t="s">
@@ -6253,8 +8310,24 @@
       <c r="Z173" s="6">
         <v>76637381</v>
       </c>
-    </row>
-    <row r="174" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB173" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC173" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD173" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE173" s="6">
+        <v>76637381</v>
+      </c>
+      <c r="AG173" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L174" s="5" t="s">
         <v>177</v>
       </c>
@@ -6268,7 +8341,7 @@
         <v>78609420</v>
       </c>
       <c r="R174" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y174" s="5" t="s">
@@ -6277,8 +8350,24 @@
       <c r="Z174" s="6">
         <v>43609800</v>
       </c>
-    </row>
-    <row r="175" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB174" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC174" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD174" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE174" s="6">
+        <v>43609800</v>
+      </c>
+      <c r="AG174" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L175" s="5" t="s">
         <v>178</v>
       </c>
@@ -6292,7 +8381,7 @@
         <v>32228300</v>
       </c>
       <c r="R175" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y175" s="5" t="s">
@@ -6301,22 +8390,38 @@
       <c r="Z175" s="6">
         <v>26374328</v>
       </c>
-    </row>
-    <row r="176" spans="12:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L176" s="7" t="s">
+      <c r="AB175" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC175" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD175" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE175" s="6">
+        <v>26374328</v>
+      </c>
+      <c r="AG175" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="12:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L176" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="M176" s="8">
+      <c r="M176" s="11">
         <v>39054530</v>
       </c>
-      <c r="O176" s="7" t="s">
+      <c r="O176" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="P176" s="8">
+      <c r="P176" s="11">
         <v>39054530</v>
       </c>
-      <c r="R176" s="9" t="b">
-        <f t="shared" si="1"/>
+      <c r="R176" s="12" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y176" s="5" t="s">
@@ -6325,8 +8430,24 @@
       <c r="Z176" s="6">
         <v>61270020</v>
       </c>
-    </row>
-    <row r="177" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB176" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC176" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD176" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE176" s="6">
+        <v>61270020</v>
+      </c>
+      <c r="AG176" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L177" s="5" t="s">
         <v>179</v>
       </c>
@@ -6340,7 +8461,7 @@
         <v>114041969</v>
       </c>
       <c r="R177" t="b">
-        <f t="shared" ref="R177:R195" si="2">M177=P177</f>
+        <f t="shared" ref="R177:R195" si="4">M177=P177</f>
         <v>1</v>
       </c>
       <c r="Y177" s="5" t="s">
@@ -6349,8 +8470,24 @@
       <c r="Z177" s="6">
         <v>1039939770</v>
       </c>
-    </row>
-    <row r="178" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB177" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC177" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD177" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE177" s="6">
+        <v>1039939770</v>
+      </c>
+      <c r="AG177" t="b">
+        <f t="shared" ref="AG177:AG239" si="5">AE177=Z177</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L178" s="5" t="s">
         <v>180</v>
       </c>
@@ -6364,7 +8501,7 @@
         <v>63025130</v>
       </c>
       <c r="R178" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y178" s="5" t="s">
@@ -6373,8 +8510,24 @@
       <c r="Z178" s="6">
         <v>77855490</v>
       </c>
-    </row>
-    <row r="179" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB178" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC178" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD178" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE178" s="6">
+        <v>77855490</v>
+      </c>
+      <c r="AG178" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L179" s="5" t="s">
         <v>181</v>
       </c>
@@ -6388,7 +8541,7 @@
         <v>315304450</v>
       </c>
       <c r="R179" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y179" s="5" t="s">
@@ -6397,8 +8550,24 @@
       <c r="Z179" s="6">
         <v>25337170</v>
       </c>
-    </row>
-    <row r="180" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB179" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC179" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD179" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE179" s="6">
+        <v>25337170</v>
+      </c>
+      <c r="AG179" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L180" s="5" t="s">
         <v>182</v>
       </c>
@@ -6412,7 +8581,7 @@
         <v>49055160</v>
       </c>
       <c r="R180" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y180" s="5" t="s">
@@ -6421,8 +8590,24 @@
       <c r="Z180" s="6">
         <v>65794020</v>
       </c>
-    </row>
-    <row r="181" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB180" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC180" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD180" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE180" s="6">
+        <v>65794020</v>
+      </c>
+      <c r="AG180" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L181" s="5" t="s">
         <v>183</v>
       </c>
@@ -6436,7 +8621,7 @@
         <v>439698158</v>
       </c>
       <c r="R181" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y181" s="5" t="s">
@@ -6445,22 +8630,38 @@
       <c r="Z181" s="6">
         <v>51514180</v>
       </c>
-    </row>
-    <row r="182" spans="12:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L182" s="7" t="s">
+      <c r="AB181" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC181" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD181" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE181" s="6">
+        <v>51514180</v>
+      </c>
+      <c r="AG181" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="12:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L182" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M182" s="8">
+      <c r="M182" s="11">
         <v>153977190</v>
       </c>
-      <c r="O182" s="7" t="s">
+      <c r="O182" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="P182" s="8">
+      <c r="P182" s="11">
         <v>153977190</v>
       </c>
-      <c r="R182" s="9" t="b">
-        <f t="shared" si="2"/>
+      <c r="R182" s="12" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y182" s="5" t="s">
@@ -6469,8 +8670,24 @@
       <c r="Z182" s="6">
         <v>9347150</v>
       </c>
-    </row>
-    <row r="183" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB182" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC182" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD182" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE182" s="6">
+        <v>9347150</v>
+      </c>
+      <c r="AG182" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L183" s="5" t="s">
         <v>184</v>
       </c>
@@ -6484,7 +8701,7 @@
         <v>1871022910</v>
       </c>
       <c r="R183" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y183" s="5" t="s">
@@ -6493,8 +8710,24 @@
       <c r="Z183" s="6">
         <v>8753590</v>
       </c>
-    </row>
-    <row r="184" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB183" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC183" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD183" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE183" s="6">
+        <v>8753590</v>
+      </c>
+      <c r="AG183" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L184" s="5" t="s">
         <v>185</v>
       </c>
@@ -6508,7 +8741,7 @@
         <v>113525020</v>
       </c>
       <c r="R184" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y184" s="5" t="s">
@@ -6517,8 +8750,24 @@
       <c r="Z184" s="6">
         <v>9403880</v>
       </c>
-    </row>
-    <row r="185" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB184" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC184" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD184" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE184" s="6">
+        <v>9403880</v>
+      </c>
+      <c r="AG184" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L185" s="5" t="s">
         <v>186</v>
       </c>
@@ -6532,7 +8781,7 @@
         <v>4482100</v>
       </c>
       <c r="R185" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y185" s="5" t="s">
@@ -6541,8 +8790,24 @@
       <c r="Z185" s="6">
         <v>103150970</v>
       </c>
-    </row>
-    <row r="186" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB185" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC185" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD185" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE185" s="6">
+        <v>103150970</v>
+      </c>
+      <c r="AG185" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L186" s="5" t="s">
         <v>187</v>
       </c>
@@ -6556,7 +8821,7 @@
         <v>21814830</v>
       </c>
       <c r="R186" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y186" s="5" t="s">
@@ -6565,8 +8830,24 @@
       <c r="Z186" s="6">
         <v>15846320</v>
       </c>
-    </row>
-    <row r="187" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB186" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC186" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD186" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE186" s="6">
+        <v>15846320</v>
+      </c>
+      <c r="AG186" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L187" s="5" t="s">
         <v>188</v>
       </c>
@@ -6580,7 +8861,7 @@
         <v>27271240</v>
       </c>
       <c r="R187" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y187" s="5" t="s">
@@ -6589,8 +8870,24 @@
       <c r="Z187" s="6">
         <v>404027480</v>
       </c>
-    </row>
-    <row r="188" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB187" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC187" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD187" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE187" s="6">
+        <v>404027480</v>
+      </c>
+      <c r="AG187" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L188" s="5" t="s">
         <v>189</v>
       </c>
@@ -6604,7 +8901,7 @@
         <v>175156530</v>
       </c>
       <c r="R188" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y188" s="5" t="s">
@@ -6613,8 +8910,24 @@
       <c r="Z188" s="6">
         <v>237692590</v>
       </c>
-    </row>
-    <row r="189" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB188" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC188" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD188" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE188" s="6">
+        <v>237692590</v>
+      </c>
+      <c r="AG188" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L189" s="5" t="s">
         <v>190</v>
       </c>
@@ -6628,7 +8941,7 @@
         <v>58802160</v>
       </c>
       <c r="R189" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y189" s="5" t="s">
@@ -6637,8 +8950,24 @@
       <c r="Z189" s="6">
         <v>14615570</v>
       </c>
-    </row>
-    <row r="190" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB189" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC189" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD189" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE189" s="6">
+        <v>14615570</v>
+      </c>
+      <c r="AG189" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L190" s="5" t="s">
         <v>195</v>
       </c>
@@ -6652,7 +8981,7 @@
         <v>285588300</v>
       </c>
       <c r="R190" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y190" s="5" t="s">
@@ -6661,8 +8990,24 @@
       <c r="Z190" s="6">
         <v>247680690</v>
       </c>
-    </row>
-    <row r="191" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB190" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC190" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD190" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE190" s="6">
+        <v>247680690</v>
+      </c>
+      <c r="AG190" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L191" s="5" t="s">
         <v>196</v>
       </c>
@@ -6676,7 +9021,7 @@
         <v>61581620</v>
       </c>
       <c r="R191" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y191" s="5" t="s">
@@ -6685,8 +9030,24 @@
       <c r="Z191" s="6">
         <v>24766080</v>
       </c>
-    </row>
-    <row r="192" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB191" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC191" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD191" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE191" s="6">
+        <v>24766080</v>
+      </c>
+      <c r="AG191" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L192" s="5" t="s">
         <v>197</v>
       </c>
@@ -6700,7 +9061,7 @@
         <v>129840180</v>
       </c>
       <c r="R192" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y192" s="5" t="s">
@@ -6709,8 +9070,24 @@
       <c r="Z192" s="6">
         <v>1138608310</v>
       </c>
-    </row>
-    <row r="193" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB192" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC192" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD192" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE192" s="6">
+        <v>1138608310</v>
+      </c>
+      <c r="AG192" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L193" s="5" t="s">
         <v>198</v>
       </c>
@@ -6724,7 +9101,7 @@
         <v>143455650</v>
       </c>
       <c r="R193" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y193" s="5" t="s">
@@ -6733,8 +9110,24 @@
       <c r="Z193" s="6">
         <v>18320860</v>
       </c>
-    </row>
-    <row r="194" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB193" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC193" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD193" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE193" s="6">
+        <v>18320860</v>
+      </c>
+      <c r="AG193" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L194" s="5" t="s">
         <v>199</v>
       </c>
@@ -6748,7 +9141,7 @@
         <v>70748630</v>
       </c>
       <c r="R194" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y194" s="5" t="s">
@@ -6757,8 +9150,24 @@
       <c r="Z194" s="6">
         <v>47315480</v>
       </c>
-    </row>
-    <row r="195" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB194" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC194" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD194" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE194" s="6">
+        <v>47315480</v>
+      </c>
+      <c r="AG194" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L195" s="5" t="s">
         <v>200</v>
       </c>
@@ -6772,7 +9181,7 @@
         <v>1790984691</v>
       </c>
       <c r="R195" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y195" s="5" t="s">
@@ -6781,18 +9190,54 @@
       <c r="Z195" s="6">
         <v>35509650</v>
       </c>
-    </row>
-    <row r="196" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB195" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC195" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD195" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE195" s="6">
+        <v>35509650</v>
+      </c>
+      <c r="AG195" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L196" s="5"/>
       <c r="M196" s="6"/>
+      <c r="P196" s="4">
+        <f>SUM(P48:P195)</f>
+        <v>60177395218</v>
+      </c>
       <c r="Y196" s="5" t="s">
         <v>192</v>
       </c>
       <c r="Z196" s="6">
         <v>104137400</v>
       </c>
-    </row>
-    <row r="197" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB196" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC196" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD196" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE196" s="6">
+        <v>104137400</v>
+      </c>
+      <c r="AG196" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L197" s="5"/>
       <c r="M197" s="6"/>
       <c r="Y197" s="5" t="s">
@@ -6801,8 +9246,24 @@
       <c r="Z197" s="6">
         <v>29203340</v>
       </c>
-    </row>
-    <row r="198" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB197" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC197" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD197" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE197" s="6">
+        <v>29203340</v>
+      </c>
+      <c r="AG197" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L198" s="5"/>
       <c r="M198" s="6"/>
       <c r="Y198" s="5" t="s">
@@ -6811,8 +9272,24 @@
       <c r="Z198" s="6">
         <v>53655340</v>
       </c>
-    </row>
-    <row r="199" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB198" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC198" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD198" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE198" s="6">
+        <v>53655340</v>
+      </c>
+      <c r="AG198" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="12:33" x14ac:dyDescent="0.3">
       <c r="L199" s="5"/>
       <c r="M199" s="6"/>
       <c r="Y199" s="5" t="s">
@@ -6821,329 +9298,995 @@
       <c r="Z199" s="6">
         <v>96111550</v>
       </c>
-    </row>
-    <row r="200" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB199" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC199" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD199" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE199" s="6">
+        <v>96111550</v>
+      </c>
+      <c r="AG199" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y200" s="5" t="s">
         <v>169</v>
       </c>
       <c r="Z200" s="6">
         <v>52448490</v>
       </c>
-    </row>
-    <row r="201" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB200" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC200" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD200" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE200" s="6">
+        <v>52448490</v>
+      </c>
+      <c r="AG200" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y201" s="5" t="s">
         <v>170</v>
       </c>
       <c r="Z201" s="6">
         <v>67892460</v>
       </c>
-    </row>
-    <row r="202" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB201" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC201" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD201" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE201" s="6">
+        <v>67892460</v>
+      </c>
+      <c r="AG201" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y202" s="5" t="s">
         <v>255</v>
       </c>
       <c r="Z202" s="6">
         <v>8089000</v>
       </c>
-    </row>
-    <row r="203" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB202" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC202" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD202" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE202" s="6">
+        <v>8089000</v>
+      </c>
+      <c r="AG202" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y203" s="5" t="s">
         <v>256</v>
       </c>
       <c r="Z203" s="6">
         <v>14485130</v>
       </c>
-    </row>
-    <row r="204" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB203" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC203" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD203" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE203" s="6">
+        <v>14485130</v>
+      </c>
+      <c r="AG203" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y204" s="5" t="s">
         <v>257</v>
       </c>
       <c r="Z204" s="6">
         <v>88944570</v>
       </c>
-    </row>
-    <row r="205" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB204" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC204" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD204" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE204" s="6">
+        <v>88944570</v>
+      </c>
+      <c r="AG204" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y205" s="5" t="s">
         <v>258</v>
       </c>
       <c r="Z205" s="6">
         <v>10059500</v>
       </c>
-    </row>
-    <row r="206" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB205" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC205" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD205" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE205" s="6">
+        <v>10059500</v>
+      </c>
+      <c r="AG205" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y206" s="5" t="s">
         <v>259</v>
       </c>
       <c r="Z206" s="6">
         <v>17993370</v>
       </c>
-    </row>
-    <row r="207" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB206" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC206" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD206" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE206" s="6">
+        <v>17993370</v>
+      </c>
+      <c r="AG206" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y207" s="5" t="s">
         <v>172</v>
       </c>
       <c r="Z207" s="6">
         <v>405494130</v>
       </c>
-    </row>
-    <row r="208" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AB207" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC207" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD207" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE207" s="6">
+        <v>405494130</v>
+      </c>
+      <c r="AG207" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="12:33" x14ac:dyDescent="0.3">
       <c r="Y208" s="5" t="s">
         <v>260</v>
       </c>
       <c r="Z208" s="6">
         <v>296371800</v>
       </c>
-    </row>
-    <row r="209" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB208" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC208" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD208" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE208" s="6">
+        <v>296371800</v>
+      </c>
+      <c r="AG208" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y209" s="5" t="s">
         <v>173</v>
       </c>
       <c r="Z209" s="6">
         <v>7510490</v>
       </c>
-    </row>
-    <row r="210" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB209" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC209" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD209" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE209" s="6">
+        <v>7510490</v>
+      </c>
+      <c r="AG209" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y210" s="5" t="s">
         <v>174</v>
       </c>
       <c r="Z210" s="6">
         <v>18561350</v>
       </c>
-    </row>
-    <row r="211" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB210" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC210" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD210" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE210" s="6">
+        <v>18561350</v>
+      </c>
+      <c r="AG210" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y211" s="5" t="s">
         <v>175</v>
       </c>
       <c r="Z211" s="6">
         <v>1409357000</v>
       </c>
-    </row>
-    <row r="212" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB211" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC211" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD211" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE211" s="6">
+        <v>1409357000</v>
+      </c>
+      <c r="AG211" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y212" s="5" t="s">
         <v>176</v>
       </c>
       <c r="Z212" s="6">
         <v>19116220</v>
       </c>
-    </row>
-    <row r="213" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB212" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC212" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD212" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE212" s="6">
+        <v>19116220</v>
+      </c>
+      <c r="AG212" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y213" s="5" t="s">
         <v>177</v>
       </c>
       <c r="Z213" s="6">
         <v>69908480</v>
       </c>
-    </row>
-    <row r="214" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB213" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC213" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD213" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE213" s="6">
+        <v>69908480</v>
+      </c>
+      <c r="AG213" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y214" s="5" t="s">
         <v>178</v>
       </c>
       <c r="Z214" s="6">
         <v>26027950</v>
       </c>
-    </row>
-    <row r="215" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB214" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC214" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD214" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE214" s="6">
+        <v>26027950</v>
+      </c>
+      <c r="AG214" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y215" s="5" t="s">
         <v>193</v>
       </c>
       <c r="Z215" s="6">
         <v>33199220</v>
       </c>
-    </row>
-    <row r="216" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB215" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC215" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD215" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE215" s="6">
+        <v>33199220</v>
+      </c>
+      <c r="AG215" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y216" s="5" t="s">
         <v>179</v>
       </c>
       <c r="Z216" s="6">
         <v>102819909</v>
       </c>
-    </row>
-    <row r="217" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB216" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC216" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD216" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE216" s="6">
+        <v>102819909</v>
+      </c>
+      <c r="AG216" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y217" s="5" t="s">
         <v>180</v>
       </c>
       <c r="Z217" s="6">
         <v>53173460</v>
       </c>
-    </row>
-    <row r="218" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB217" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC217" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD217" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE217" s="6">
+        <v>53173460</v>
+      </c>
+      <c r="AG217" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y218" s="5" t="s">
         <v>181</v>
       </c>
       <c r="Z218" s="6">
         <v>78525560</v>
       </c>
-    </row>
-    <row r="219" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB218" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC218" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD218" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE218" s="6">
+        <v>78525560</v>
+      </c>
+      <c r="AG218" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y219" s="5" t="s">
         <v>182</v>
       </c>
       <c r="Z219" s="6">
         <v>41069820</v>
       </c>
-    </row>
-    <row r="220" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB219" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC219" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD219" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE219" s="6">
+        <v>41069820</v>
+      </c>
+      <c r="AG219" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y220" s="5" t="s">
         <v>183</v>
       </c>
       <c r="Z220" s="6">
         <v>431087718</v>
       </c>
-    </row>
-    <row r="221" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB220" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC220" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD220" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE220" s="6">
+        <v>431087718</v>
+      </c>
+      <c r="AG220" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y221" s="5" t="s">
         <v>194</v>
       </c>
       <c r="Z221" s="6">
         <v>62465610</v>
       </c>
-    </row>
-    <row r="222" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE221" s="6">
+        <v>62465610</v>
+      </c>
+      <c r="AG221" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y222" s="5" t="s">
         <v>184</v>
       </c>
       <c r="Z222" s="6">
         <v>10365070</v>
       </c>
-    </row>
-    <row r="223" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB222" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC222" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD222" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE222" s="6">
+        <v>10365070</v>
+      </c>
+      <c r="AG222" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y223" s="5" t="s">
         <v>261</v>
       </c>
       <c r="Z223" s="6">
         <v>23372490</v>
       </c>
-    </row>
-    <row r="224" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB223" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC223" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD223" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE223" s="6">
+        <v>23372490</v>
+      </c>
+      <c r="AG223" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="25:33" x14ac:dyDescent="0.3">
       <c r="Y224" s="5" t="s">
         <v>262</v>
       </c>
       <c r="Z224" s="6">
         <v>10744460</v>
       </c>
-    </row>
-    <row r="225" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB224" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC224" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD224" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE224" s="6">
+        <v>10744460</v>
+      </c>
+      <c r="AG224" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y225" s="5" t="s">
         <v>263</v>
       </c>
       <c r="Z225" s="6">
         <v>10795090</v>
       </c>
-    </row>
-    <row r="226" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB225" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC225" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD225" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE225" s="6">
+        <v>10795090</v>
+      </c>
+      <c r="AG225" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y226" s="5" t="s">
         <v>264</v>
       </c>
       <c r="Z226" s="6">
         <v>336138650</v>
       </c>
-    </row>
-    <row r="227" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB226" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC226" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD226" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE226" s="6">
+        <v>336138650</v>
+      </c>
+      <c r="AG226" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y227" s="5" t="s">
         <v>185</v>
       </c>
       <c r="Z227" s="6">
         <v>1713936930</v>
       </c>
-    </row>
-    <row r="228" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB227" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC227" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD227" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE227" s="6">
+        <v>1713936930</v>
+      </c>
+      <c r="AG227" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y228" s="5" t="s">
         <v>265</v>
       </c>
       <c r="Z228" s="6">
         <v>271851160</v>
       </c>
-    </row>
-    <row r="229" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB228" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC228" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD228" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE228" s="6">
+        <v>271851160</v>
+      </c>
+      <c r="AG228" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y229" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Z229" s="6">
         <v>1702130</v>
       </c>
-    </row>
-    <row r="230" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB229" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC229" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD229" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE229" s="6">
+        <v>1702130</v>
+      </c>
+      <c r="AG229" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y230" s="5" t="s">
         <v>187</v>
       </c>
       <c r="Z230" s="6">
         <v>18875950</v>
       </c>
-    </row>
-    <row r="231" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB230" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC230" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD230" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE230" s="6">
+        <v>18875950</v>
+      </c>
+      <c r="AG230" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y231" s="5" t="s">
         <v>188</v>
       </c>
       <c r="Z231" s="6">
         <v>22762500</v>
       </c>
-    </row>
-    <row r="232" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB231" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC231" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD231" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE231" s="6">
+        <v>22762500</v>
+      </c>
+      <c r="AG231" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y232" s="5" t="s">
         <v>189</v>
       </c>
       <c r="Z232" s="6">
         <v>85228680</v>
       </c>
-    </row>
-    <row r="233" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB232" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC232" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD232" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE232" s="6">
+        <v>85228680</v>
+      </c>
+      <c r="AG232" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="25:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y233" s="5" t="s">
         <v>190</v>
       </c>
       <c r="Z233" s="6">
-        <v>40353990</v>
-      </c>
-    </row>
-    <row r="234" spans="25:26" x14ac:dyDescent="0.3">
+        <v>426408784</v>
+      </c>
+      <c r="AB233" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC233" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD233" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE233" s="8">
+        <v>426408784</v>
+      </c>
+      <c r="AG233" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH233" s="14">
+        <f>AE233-Z233</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y234" s="5" t="s">
         <v>195</v>
       </c>
       <c r="Z234" s="6">
         <v>270285550</v>
       </c>
-    </row>
-    <row r="235" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB234" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC234" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD234" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE234" s="6">
+        <v>270285550</v>
+      </c>
+      <c r="AG234" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y235" s="5" t="s">
         <v>196</v>
       </c>
       <c r="Z235" s="6">
         <v>41002420</v>
       </c>
-    </row>
-    <row r="236" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB235" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC235" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD235" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE235" s="6">
+        <v>41002420</v>
+      </c>
+      <c r="AG235" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y236" s="5" t="s">
         <v>197</v>
       </c>
       <c r="Z236" s="6">
         <v>77413190</v>
       </c>
-    </row>
-    <row r="237" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB236" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC236" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD236" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE236" s="6">
+        <v>77413190</v>
+      </c>
+      <c r="AG236" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y237" s="5" t="s">
         <v>198</v>
       </c>
       <c r="Z237" s="6">
         <v>76620580</v>
       </c>
-    </row>
-    <row r="238" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB237" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC237" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD237" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE237" s="6">
+        <v>76620580</v>
+      </c>
+      <c r="AG237" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y238" s="5" t="s">
         <v>199</v>
       </c>
       <c r="Z238" s="6">
         <v>64207350</v>
       </c>
-    </row>
-    <row r="239" spans="25:26" x14ac:dyDescent="0.3">
+      <c r="AB238" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC238" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD238" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE238" s="6">
+        <v>64207350</v>
+      </c>
+      <c r="AG238" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="25:34" x14ac:dyDescent="0.3">
       <c r="Y239" s="5" t="s">
         <v>200</v>
       </c>
       <c r="Z239" s="6">
         <v>10797510</v>
       </c>
+      <c r="AB239" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC239" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD239" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE239" s="6">
+        <v>10797510</v>
+      </c>
+      <c r="AG239" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="25:34" x14ac:dyDescent="0.3">
+      <c r="AH240" s="4">
+        <f>SUBTOTAL(9,AH53:AH233)</f>
+        <v>279514470</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="R47:R195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="AG47:AI239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>

--- a/춘천시20251031미이체분불일치원인분석20251125.xlsx
+++ b/춘천시20251031미이체분불일치원인분석20251125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\sidogeumgo_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55012B-6FCD-4001-BD3A-B8FC2333DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B811C-6AEB-48C3-9679-CA5EC80BF940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y43" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47:Z239"/>
+    <sheetView tabSelected="1" topLeftCell="Y41" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2785,7 @@
       <c r="AE53" s="8">
         <v>527787210</v>
       </c>
-      <c r="AG53" s="9" t="b">
+      <c r="AG53" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10126,7 +10126,7 @@
       <c r="AE233" s="8">
         <v>426408784</v>
       </c>
-      <c r="AG233" s="9" t="b">
+      <c r="AG233" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
